--- a/pred_ohlcv/54_21/2020-01-22 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 TRV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-316122.3280024213</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-316122.3280024213</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-861305.6447024214</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>-943560.1235024214</v>
       </c>
       <c r="H54">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>-933300.2587024214</v>
       </c>
       <c r="H55">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>-927327.8983024214</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1926,7 +1926,7 @@
         <v>-945198.4027024214</v>
       </c>
       <c r="H59">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-945156.4027024214</v>
       </c>
       <c r="H60">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2030,7 +2030,7 @@
         <v>-1006014.586502421</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64" spans="1:8">
@@ -2056,7 +2056,7 @@
         <v>-950482.6879024213</v>
       </c>
       <c r="H64">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:8">
@@ -2082,7 +2082,7 @@
         <v>-921587.1420024213</v>
       </c>
       <c r="H65">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66" spans="1:8">
@@ -2108,7 +2108,7 @@
         <v>-1008088.753402421</v>
       </c>
       <c r="H66">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67" spans="1:8">
@@ -2134,7 +2134,7 @@
         <v>-1008088.753402421</v>
       </c>
       <c r="H67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68" spans="1:8">
@@ -2160,7 +2160,7 @@
         <v>-1007235.828302421</v>
       </c>
       <c r="H68">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>-1007235.828302421</v>
       </c>
       <c r="H69">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>-967269.4513024213</v>
       </c>
       <c r="H70">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>-967269.4513024213</v>
       </c>
       <c r="H71">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-981705.5881024213</v>
       </c>
       <c r="H74">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>-1022933.779602421</v>
       </c>
       <c r="H75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1026624.328302421</v>
       </c>
       <c r="H77">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1024921.725902421</v>
       </c>
       <c r="H79">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>-1044921.725902421</v>
       </c>
       <c r="H82">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1019893.748802421</v>
       </c>
       <c r="H83">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1019893.748802421</v>
       </c>
       <c r="H84">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1019810.255002421</v>
       </c>
       <c r="H85">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-1096448.562302421</v>
       </c>
       <c r="H93">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-1106135.845902421</v>
       </c>
       <c r="H94">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-1140792.031202421</v>
       </c>
       <c r="H97">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1137256.580202421</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1155439.460502421</v>
       </c>
       <c r="H106">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1169255.460502421</v>
       </c>
       <c r="H109">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1179994.318702421</v>
       </c>
       <c r="H111">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1180336.460502421</v>
       </c>
       <c r="H112">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1181178.978102421</v>
       </c>
       <c r="H113">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1056671.029102421</v>
       </c>
       <c r="H114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1034913.679802421</v>
       </c>
       <c r="H115">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-872629.4029024213</v>
       </c>
       <c r="H116">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-637085.1217024213</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-636053.0964024214</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-66878.36590242136</v>
       </c>
       <c r="H124">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-66988.36590242136</v>
       </c>
       <c r="H125">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-39626.87390242136</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-198557.1067024214</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-198458.1067024214</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-198458.1067024214</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-198499.1067024214</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-198499.1067024214</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-214633.9130024214</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-214583.9130024214</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>-214632.9130024214</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>-192633.0393024214</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>-192633.0393024214</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>-192633.0393024214</v>
       </c>
       <c r="H137">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-221372.5002024214</v>
       </c>
       <c r="H138">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>-191821.1595024214</v>
       </c>
       <c r="H139">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>-457255.2260024213</v>
       </c>
       <c r="H140">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>-616185.4588024213</v>
       </c>
       <c r="H141">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-579225.2819024213</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-612868.4219024213</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-598868.4219024213</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-598821.4219024213</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-598775.4219024213</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-589367.1497024213</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-589367.1497024213</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-555228.0097024213</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-540732.9616024212</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-510837.8442024213</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>-509683.4527024212</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>-518780.2083024212</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>-537598.5368024212</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-552020.5984024212</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>-554239.0318024212</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-22 TRV ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-22 TRV ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-316122.3280024213</v>
       </c>
       <c r="H2">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -470,7 +470,7 @@
         <v>-316122.3280024213</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-861305.6447024214</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1952,7 +1952,7 @@
         <v>-945156.4027024214</v>
       </c>
       <c r="H60">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>-981705.5881024213</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>-1026624.328302421</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>-1024963.725902421</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>-1024921.725902421</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>-1024921.725902421</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>-1019893.748802421</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>-1019893.748802421</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-1019810.255002421</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-1034314.761202421</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-1137215.580102421</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-1137256.580202421</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-1155481.460502421</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-1155439.460502421</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-1155439.460502421</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-1170255.460502421</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -3226,7 +3226,7 @@
         <v>-1169255.460502421</v>
       </c>
       <c r="H109">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:8">
@@ -3252,7 +3252,7 @@
         <v>-1180036.318702421</v>
       </c>
       <c r="H110">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:8">
@@ -3278,7 +3278,7 @@
         <v>-1179994.318702421</v>
       </c>
       <c r="H111">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:8">
@@ -3304,7 +3304,7 @@
         <v>-1180336.460502421</v>
       </c>
       <c r="H112">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>-1181178.978102421</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>-1056671.029102421</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>-1034913.679802421</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>-872629.4029024213</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>-637085.1217024213</v>
       </c>
       <c r="H117">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>-636053.0964024214</v>
       </c>
       <c r="H118">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>-395290.3428024214</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>-66878.36590242136</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>-66988.36590242136</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>-39626.87390242136</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>-198557.1067024214</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>-198458.1067024214</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>-198458.1067024214</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>-198499.1067024214</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>-198499.1067024214</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>-214633.9130024214</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>-214583.9130024214</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>-221372.5002024214</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="139" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-579225.2819024213</v>
       </c>
       <c r="H144">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>-612868.4219024213</v>
       </c>
       <c r="H145">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-598868.4219024213</v>
       </c>
       <c r="H146">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-598821.4219024213</v>
       </c>
       <c r="H147">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-598775.4219024213</v>
       </c>
       <c r="H148">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-589367.1497024213</v>
       </c>
       <c r="H149">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-589367.1497024213</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>-555228.0097024213</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-540732.9616024212</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>-510837.8442024213</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
